--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="373">
   <si>
     <t>INN</t>
   </si>
@@ -1103,30 +1103,6 @@
     <t>0,66-1 - средний абсолютный прирост стоимости чистых активов предприятия низкий (или отрицательный), значит, его финансовую устойчивость можно считать неудовлетворительной</t>
   </si>
   <si>
-    <r>
-      <t>MAX(ABS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="206"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>((SB_1600_c-SB_1500_c-SB_1400_c+SB_1530_c)/SB_1310_c))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>END-1</t>
-    </r>
-  </si>
-  <si>
     <t>MAX(ABS((SB_1600_c-SB_1500_c-SB_1400_c+SB_1530_c-SB_1600_p+SB_1500_p+SB_1400_p-SB_1530_p)/(SB_1600_p-SB_1500_p-SB_1400_p+SB_1530_p)*100))END</t>
   </si>
   <si>
@@ -1160,32 +1136,20 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>PARAMS</t>
-  </si>
-  <si>
-    <t>SB_1600_c;SB_1500_c;SB_1400_c;SB_1530_c;SB_1310_c</t>
-  </si>
-  <si>
-    <t>SB_1600_c;SB_1500_c;SB_1400_c;SB_1530_c;SB_1600_t;SB_1500_t;SB_1400_t;SB_1530_t</t>
-  </si>
-  <si>
-    <t>SB_1600_c;SB_1500_c;SB_1400_c;SB_1530_c;SB_1600_p;SB_1500_p;SB_1400_p;SB_1530_p</t>
-  </si>
-  <si>
-    <t>NORMATIVE(ST.BLABLA)</t>
-  </si>
-  <si>
     <t>8602166992</t>
   </si>
   <si>
     <t>5410786860</t>
+  </si>
+  <si>
+    <t>NORMATIVE(FIIJJJ)END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1207,12 +1171,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="206"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1606,7 +1564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4210,7 +4168,7 @@
     </row>
     <row r="4" spans="1:285" s="9" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>291</v>
@@ -8495,7 +8453,7 @@
     </row>
     <row r="9" spans="1:285" s="9" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
@@ -35925,10 +35883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -35936,7 +35894,7 @@
     <col min="3" max="3" width="127" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1">
+    <row r="1" spans="1:16" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>312</v>
       </c>
@@ -35970,13 +35928,10 @@
       <c r="K1" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>371</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" s="18" customFormat="1">
+    <row r="2" spans="1:16" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>343</v>
@@ -35991,7 +35946,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G2" s="18">
         <v>0</v>
@@ -36003,29 +35958,26 @@
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>346</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
+      <c r="M2"/>
+      <c r="N2" t="s">
         <v>347</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2" t="s">
+      <c r="O2"/>
+      <c r="P2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="18" customFormat="1">
+    <row r="3" spans="1:16" s="18" customFormat="1">
       <c r="A3" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -36052,27 +36004,24 @@
         <v>0</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K3" s="18">
         <v>0</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="M3" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="18" customFormat="1">
+    <row r="4" spans="1:16" s="18" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
         <v>354</v>
@@ -36099,23 +36048,20 @@
         <v>0</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>356</v>
       </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
+      <c r="M4"/>
+      <c r="N4" t="s">
         <v>357</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4" t="s">
+      <c r="O4"/>
+      <c r="P4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -36137,19 +36083,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" t="s">
         <v>364</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
         <v>366</v>
-      </c>
-      <c r="D1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -36225,7 +36171,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6">
         <v>2</v>

--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\riskService\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2310C4-76D5-4B2E-A33D-CB6E6F576313}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="27318" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="379">
   <si>
     <t>INN</t>
   </si>
@@ -1143,13 +1149,31 @@
   </si>
   <si>
     <t>NORMATIVE(FIIJJJ)END</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1304,6 +1328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1564,38 +1591,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView topLeftCell="BZ1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.84765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.59765625" style="16" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.34765625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.84765625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.84765625" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="64" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="65" max="236" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="237" max="285" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="286" max="16384" width="10.875" style="4"/>
+    <col min="286" max="16384" width="10.84765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285">
+    <row r="1" spans="1:285" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:285" s="8" customFormat="1">
+    <row r="2" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5">
         <v>8602166992</v>
       </c>
@@ -3309,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:285" s="9" customFormat="1">
+    <row r="3" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>8602166992</v>
       </c>
@@ -4166,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:285" s="9" customFormat="1">
+    <row r="4" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="34" t="s">
         <v>370</v>
       </c>
@@ -5023,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:285" s="9" customFormat="1">
+    <row r="5" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>8602166992</v>
       </c>
@@ -5880,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:285" s="13" customFormat="1">
+    <row r="6" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="11">
         <v>8602166992</v>
       </c>
@@ -6737,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:285" s="8" customFormat="1">
+    <row r="7" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
         <v>5410786860</v>
       </c>
@@ -7594,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:285" s="9" customFormat="1">
+    <row r="8" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>5410786860</v>
       </c>
@@ -8451,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:285" s="9" customFormat="1">
+    <row r="9" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A9" s="34" t="s">
         <v>371</v>
       </c>
@@ -9308,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:285" s="13" customFormat="1">
+    <row r="10" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="11">
         <v>5410786860</v>
       </c>
@@ -10165,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:285" s="8" customFormat="1">
+    <row r="11" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="5">
         <v>5503217263</v>
       </c>
@@ -11022,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:285" s="9" customFormat="1">
+    <row r="12" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>5503217263</v>
       </c>
@@ -11879,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:285" s="9" customFormat="1">
+    <row r="13" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>5503217263</v>
       </c>
@@ -12736,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:285" s="13" customFormat="1">
+    <row r="14" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="11">
         <v>5503217263</v>
       </c>
@@ -13593,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:285" s="8" customFormat="1">
+    <row r="15" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="5">
         <v>5402552025</v>
       </c>
@@ -14450,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:285" s="9" customFormat="1">
+    <row r="16" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>5402552025</v>
       </c>
@@ -15307,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:285" s="9" customFormat="1">
+    <row r="17" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1">
         <v>5402552025</v>
       </c>
@@ -16164,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:285" s="9" customFormat="1">
+    <row r="18" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>311</v>
       </c>
@@ -17021,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:285" s="9" customFormat="1">
+    <row r="19" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1">
         <v>5402552025</v>
       </c>
@@ -17878,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:285" s="13" customFormat="1">
+    <row r="20" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="11">
         <v>5402552025</v>
       </c>
@@ -18735,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:285" s="8" customFormat="1">
+    <row r="21" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5">
         <v>3241012505</v>
       </c>
@@ -19592,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:285" s="9" customFormat="1">
+    <row r="22" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>3241012505</v>
       </c>
@@ -20449,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:285" s="13" customFormat="1">
+    <row r="23" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="11">
         <v>3241012505</v>
       </c>
@@ -21306,7 +21333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:285" s="8" customFormat="1">
+    <row r="24" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5">
         <v>7451346741</v>
       </c>
@@ -22163,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:285" s="9" customFormat="1">
+    <row r="25" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1">
         <v>7451346741</v>
       </c>
@@ -23020,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:285" s="13" customFormat="1">
+    <row r="26" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="11">
         <v>7451346741</v>
       </c>
@@ -23877,7 +23904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:285" s="23" customFormat="1">
+    <row r="27" spans="1:285" s="23" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="19">
         <v>5836603667</v>
       </c>
@@ -24734,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:285" s="26" customFormat="1">
+    <row r="28" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="24">
         <v>5836603667</v>
       </c>
@@ -25591,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:285" s="26" customFormat="1">
+    <row r="29" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A29" s="24">
         <v>5836603667</v>
       </c>
@@ -26448,7 +26475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:285" s="26" customFormat="1">
+    <row r="30" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="24">
         <v>5836603667</v>
       </c>
@@ -27305,7 +27332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:285" s="26" customFormat="1">
+    <row r="31" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="24">
         <v>5836603667</v>
       </c>
@@ -28162,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:285" s="26" customFormat="1">
+    <row r="32" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="24">
         <v>5836603667</v>
       </c>
@@ -29019,7 +29046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:285" s="31" customFormat="1">
+    <row r="33" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A33" s="28">
         <v>5836603667</v>
       </c>
@@ -29876,7 +29903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:285" s="26" customFormat="1">
+    <row r="34" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="24" t="s">
         <v>339</v>
       </c>
@@ -30733,7 +30760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:285" s="26" customFormat="1">
+    <row r="35" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="24" t="s">
         <v>339</v>
       </c>
@@ -31590,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:285" s="26" customFormat="1">
+    <row r="36" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="24">
         <v>7705892352</v>
       </c>
@@ -32447,7 +32474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:285" s="26" customFormat="1">
+    <row r="37" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="24">
         <v>7705892352</v>
       </c>
@@ -33304,7 +33331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:285" s="26" customFormat="1">
+    <row r="38" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="24" t="s">
         <v>339</v>
       </c>
@@ -34161,7 +34188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:285" s="26" customFormat="1">
+    <row r="39" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A39" s="24">
         <v>7705892352</v>
       </c>
@@ -35018,7 +35045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:285" s="31" customFormat="1">
+    <row r="40" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A40" s="28">
         <v>7705892352</v>
       </c>
@@ -35882,19 +35909,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="127" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1">
+    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="17" t="s">
         <v>312</v>
       </c>
@@ -35929,7 +35956,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1">
+    <row r="2" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
         <v>360</v>
       </c>
@@ -35975,7 +36002,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="18" customFormat="1">
+    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="18" t="s">
         <v>361</v>
       </c>
@@ -36019,7 +36046,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="18" customFormat="1">
+    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>368</v>
       </c>
@@ -36072,111 +36099,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>363</v>
       </c>
       <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
         <v>364</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>365</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>374</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>375</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>369</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\riskService\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2310C4-76D5-4B2E-A33D-CB6E6F576313}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="27318" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="382">
   <si>
     <t>INN</t>
   </si>
@@ -1115,9 +1109,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0.0045*MAX(ABS((SB_1600_c-SB_1500_c-SB_1400_c+SB_1530_c-SB_1600_t+SB_1500_t+SB_1400_t-SB_1530_t)/2))END</t>
   </si>
   <si>
@@ -1136,9 +1127,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -1167,13 +1155,28 @@
   </si>
   <si>
     <t>d5</t>
+  </si>
+  <si>
+    <t>5ce9089b-b9ac-417d-941d-717205978eec</t>
+  </si>
+  <si>
+    <t>9d4ce381-4776-4cda-9954-76b7e74d30be</t>
+  </si>
+  <si>
+    <t>d5881ad5-a58f-4923-9d02-1c235d8b598c</t>
+  </si>
+  <si>
+    <t>b9db2217-381c-4be6-b243-85d158e54218</t>
+  </si>
+  <si>
+    <t>85b7205c-2829-446e-8f4a-05eafe163915</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1195,6 +1198,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1241,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1319,6 +1336,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1591,38 +1619,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView topLeftCell="BZ1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.84765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.59765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.625" style="16" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.34765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.84765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.84765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="64" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="65" max="236" width="9.5" style="4" bestFit="1" customWidth="1"/>
     <col min="237" max="285" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="286" max="16384" width="10.84765625" style="4"/>
+    <col min="286" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:285">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2507,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:285" s="8" customFormat="1">
       <c r="A2" s="5">
         <v>8602166992</v>
       </c>
@@ -3336,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:285" s="9" customFormat="1">
       <c r="A3" s="1">
         <v>8602166992</v>
       </c>
@@ -4193,9 +4221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:285" s="9" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>291</v>
@@ -5050,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:285" s="9" customFormat="1">
       <c r="A5" s="1">
         <v>8602166992</v>
       </c>
@@ -5907,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:285" s="13" customFormat="1">
       <c r="A6" s="11">
         <v>8602166992</v>
       </c>
@@ -6764,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:285" s="8" customFormat="1">
       <c r="A7" s="5">
         <v>5410786860</v>
       </c>
@@ -7621,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:285" s="9" customFormat="1">
       <c r="A8" s="1">
         <v>5410786860</v>
       </c>
@@ -8478,9 +8506,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:285" s="9" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
@@ -9335,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:285" s="13" customFormat="1">
       <c r="A10" s="11">
         <v>5410786860</v>
       </c>
@@ -10192,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:285" s="8" customFormat="1">
       <c r="A11" s="5">
         <v>5503217263</v>
       </c>
@@ -11049,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:285" s="9" customFormat="1">
       <c r="A12" s="1">
         <v>5503217263</v>
       </c>
@@ -11906,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:285" s="9" customFormat="1">
       <c r="A13" s="1">
         <v>5503217263</v>
       </c>
@@ -12763,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:285" s="13" customFormat="1">
       <c r="A14" s="11">
         <v>5503217263</v>
       </c>
@@ -13620,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:285" s="8" customFormat="1">
       <c r="A15" s="5">
         <v>5402552025</v>
       </c>
@@ -14477,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:285" s="9" customFormat="1">
       <c r="A16" s="1">
         <v>5402552025</v>
       </c>
@@ -15334,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:285" s="9" customFormat="1">
       <c r="A17" s="1">
         <v>5402552025</v>
       </c>
@@ -16191,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:285" s="9" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>311</v>
       </c>
@@ -17048,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:285" s="9" customFormat="1">
       <c r="A19" s="1">
         <v>5402552025</v>
       </c>
@@ -17905,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:285" s="13" customFormat="1">
       <c r="A20" s="11">
         <v>5402552025</v>
       </c>
@@ -18762,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:285" s="8" customFormat="1">
       <c r="A21" s="5">
         <v>3241012505</v>
       </c>
@@ -19619,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:285" s="9" customFormat="1">
       <c r="A22" s="1">
         <v>3241012505</v>
       </c>
@@ -20476,7 +20504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:285" s="13" customFormat="1">
       <c r="A23" s="11">
         <v>3241012505</v>
       </c>
@@ -21333,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:285" s="8" customFormat="1">
       <c r="A24" s="5">
         <v>7451346741</v>
       </c>
@@ -22190,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:285" s="9" customFormat="1">
       <c r="A25" s="1">
         <v>7451346741</v>
       </c>
@@ -23047,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:285" s="13" customFormat="1">
       <c r="A26" s="11">
         <v>7451346741</v>
       </c>
@@ -23904,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:285" s="23" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:285" s="23" customFormat="1">
       <c r="A27" s="19">
         <v>5836603667</v>
       </c>
@@ -24761,7 +24789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:285" s="26" customFormat="1">
       <c r="A28" s="24">
         <v>5836603667</v>
       </c>
@@ -25618,7 +25646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:285" s="26" customFormat="1">
       <c r="A29" s="24">
         <v>5836603667</v>
       </c>
@@ -26475,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:285" s="26" customFormat="1">
       <c r="A30" s="24">
         <v>5836603667</v>
       </c>
@@ -27332,7 +27360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:285" s="26" customFormat="1">
       <c r="A31" s="24">
         <v>5836603667</v>
       </c>
@@ -28189,7 +28217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:285" s="26" customFormat="1">
       <c r="A32" s="24">
         <v>5836603667</v>
       </c>
@@ -29046,7 +29074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:285" s="31" customFormat="1">
       <c r="A33" s="28">
         <v>5836603667</v>
       </c>
@@ -29903,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:285" s="26" customFormat="1">
       <c r="A34" s="24" t="s">
         <v>339</v>
       </c>
@@ -30760,7 +30788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:285" s="26" customFormat="1">
       <c r="A35" s="24" t="s">
         <v>339</v>
       </c>
@@ -31617,7 +31645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:285" s="26" customFormat="1">
       <c r="A36" s="24">
         <v>7705892352</v>
       </c>
@@ -32474,7 +32502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:285" s="26" customFormat="1">
       <c r="A37" s="24">
         <v>7705892352</v>
       </c>
@@ -33331,7 +33359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:285" s="26" customFormat="1">
       <c r="A38" s="24" t="s">
         <v>339</v>
       </c>
@@ -34188,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:285" s="26" customFormat="1">
       <c r="A39" s="24">
         <v>7705892352</v>
       </c>
@@ -35045,7 +35073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:285" s="31" customFormat="1">
       <c r="A40" s="28">
         <v>7705892352</v>
       </c>
@@ -35909,19 +35937,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="127" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>312</v>
       </c>
@@ -35956,9 +35985,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
-        <v>360</v>
+    <row r="2" spans="1:16" s="18" customFormat="1">
+      <c r="A2" s="37" t="s">
+        <v>377</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>343</v>
@@ -35985,7 +36014,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
@@ -36002,9 +36031,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="18" t="s">
-        <v>361</v>
+    <row r="3" spans="1:16" s="18" customFormat="1">
+      <c r="A3" s="38" t="s">
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -36046,9 +36075,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
-        <v>368</v>
+    <row r="4" spans="1:16" s="18" customFormat="1">
+      <c r="A4" s="38" t="s">
+        <v>379</v>
       </c>
       <c r="B4" t="s">
         <v>354</v>
@@ -36075,7 +36104,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
@@ -36094,47 +36123,52 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" t="s">
         <v>363</v>
       </c>
-      <c r="B1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" t="s">
-        <v>366</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
-      </c>
+    <row r="2" spans="1:6">
+      <c r="A2" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="39"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -36145,15 +36179,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>380</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -36165,15 +36199,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>381</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -36185,15 +36219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>381</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -36205,18 +36239,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E6">
         <v>2</v>

--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="380">
   <si>
     <t>INN</t>
   </si>
@@ -986,13 +986,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>_XA</t>
-  </si>
-  <si>
     <t>_XB</t>
-  </si>
-  <si>
-    <t>_XC</t>
   </si>
   <si>
     <t>2010</t>
@@ -1619,7 +1613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4223,7 +4217,7 @@
     </row>
     <row r="4" spans="1:285" s="9" customFormat="1">
       <c r="A4" s="34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>291</v>
@@ -8508,7 +8502,7 @@
     </row>
     <row r="9" spans="1:285" s="9" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
@@ -23937,16 +23931,16 @@
         <v>5836603667</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="E27" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>326</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>301</v>
@@ -24800,10 +24794,10 @@
         <v>308</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F28" s="25">
         <v>0.88346701945525341</v>
@@ -25657,10 +25651,10 @@
         <v>285</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F29" s="25">
         <v>1.3374977726218089</v>
@@ -26508,16 +26502,16 @@
         <v>5836603667</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>288</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F30" s="25">
         <v>1.2278211592002024</v>
@@ -27371,10 +27365,10 @@
         <v>292</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>295</v>
@@ -28228,10 +28222,10 @@
         <v>297</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>300</v>
@@ -29085,10 +29079,10 @@
         <v>303</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>305</v>
@@ -29933,19 +29927,19 @@
     </row>
     <row r="34" spans="1:285" s="26" customFormat="1">
       <c r="A34" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B34" s="24">
         <v>2010</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>301</v>
@@ -30790,7 +30784,7 @@
     </row>
     <row r="35" spans="1:285" s="26" customFormat="1">
       <c r="A35" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>307</v>
@@ -31650,7 +31644,7 @@
         <v>7705892352</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>285</v>
@@ -32507,7 +32501,7 @@
         <v>7705892352</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>288</v>
@@ -33361,7 +33355,7 @@
     </row>
     <row r="38" spans="1:285" s="26" customFormat="1">
       <c r="A38" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>291</v>
@@ -35938,10 +35932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -35950,7 +35944,7 @@
     <col min="3" max="3" width="127" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1">
+    <row r="1" spans="1:9" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>312</v>
       </c>
@@ -35978,31 +35972,25 @@
       <c r="I1" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>322</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1">
+    <row r="2" spans="1:9" s="18" customFormat="1">
       <c r="A2" s="37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>345</v>
-      </c>
       <c r="E2" s="18">
         <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" s="18">
         <v>0</v>
@@ -36010,39 +35998,22 @@
       <c r="H2" s="18">
         <v>0</v>
       </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
+      <c r="I2" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1">
+      <c r="A3" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
         <v>347</v>
       </c>
-      <c r="O2"/>
-      <c r="P2" t="s">
+      <c r="C3" s="33" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1">
-      <c r="A3" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>350</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -36056,37 +36027,22 @@
       <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="I3" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1">
+      <c r="A4" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" t="s">
         <v>352</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="C4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="18" customFormat="1">
-      <c r="A4" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" t="s">
-        <v>355</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
@@ -36100,25 +36056,8 @@
       <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>357</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4" t="s">
-        <v>358</v>
+      <c r="I4" s="18" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -36129,10 +36068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G5" sqref="G5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -36141,32 +36080,40 @@
     <col min="3" max="3" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F1" t="s">
-        <v>365</v>
-      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14">
       <c r="A2" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2">
@@ -36178,16 +36125,28 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14">
       <c r="A3" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -36198,16 +36157,30 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14">
       <c r="A4" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -36218,16 +36191,28 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" t="s">
+        <v>355</v>
+      </c>
+      <c r="K4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14">
       <c r="A5" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>379</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>381</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -36238,19 +36223,32 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14">
       <c r="A6" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -36258,6 +36256,17 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039B13D-98FA-478E-B308-93FF75982D56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="380">
-  <si>
-    <t>INN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="381">
   <si>
     <t>year</t>
   </si>
@@ -1164,13 +1167,19 @@
   </si>
   <si>
     <t>85b7205c-2829-446e-8f4a-05eafe163915</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1613,21 +1622,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JY40"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="15" bestFit="1" customWidth="1"/>
@@ -1644,864 +1653,864 @@
     <col min="286" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285">
+    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="4" t="s">
+      <c r="FM1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FN1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="4" t="s">
+      <c r="FP1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="4" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="4" t="s">
+      <c r="FR1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="4" t="s">
+      <c r="FS1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="4" t="s">
+      <c r="FT1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FU1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="4" t="s">
+      <c r="FV1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="4" t="s">
+      <c r="FW1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="4" t="s">
+      <c r="FX1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="4" t="s">
+      <c r="FY1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="4" t="s">
+      <c r="FZ1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="4" t="s">
+      <c r="GA1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="4" t="s">
+      <c r="GB1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="4" t="s">
+      <c r="GC1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GD1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="4" t="s">
+      <c r="GE1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="4" t="s">
+      <c r="GF1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="4" t="s">
+      <c r="GG1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="4" t="s">
+      <c r="GH1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="4" t="s">
+      <c r="GI1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="4" t="s">
+      <c r="GJ1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="4" t="s">
+      <c r="GK1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="4" t="s">
+      <c r="GL1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="4" t="s">
+      <c r="GM1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="4" t="s">
+      <c r="GN1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="4" t="s">
+      <c r="GO1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="4" t="s">
+      <c r="GP1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="4" t="s">
+      <c r="GQ1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="4" t="s">
+      <c r="GR1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="4" t="s">
+      <c r="GS1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="4" t="s">
+      <c r="GT1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="4" t="s">
+      <c r="GU1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="4" t="s">
+      <c r="GV1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="4" t="s">
+      <c r="GW1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="4" t="s">
+      <c r="GX1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="4" t="s">
+      <c r="GY1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="4" t="s">
+      <c r="GZ1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="4" t="s">
+      <c r="HA1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="4" t="s">
+      <c r="HB1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="4" t="s">
+      <c r="HC1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="4" t="s">
+      <c r="HD1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="4" t="s">
+      <c r="HE1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="4" t="s">
+      <c r="HF1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="4" t="s">
+      <c r="HG1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="4" t="s">
+      <c r="HH1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="4" t="s">
+      <c r="HI1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="4" t="s">
+      <c r="HJ1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="4" t="s">
+      <c r="HK1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="4" t="s">
+      <c r="HL1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="4" t="s">
+      <c r="HM1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="4" t="s">
+      <c r="HN1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="4" t="s">
+      <c r="HO1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="4" t="s">
+      <c r="HP1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="4" t="s">
+      <c r="HQ1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="4" t="s">
+      <c r="HR1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="4" t="s">
+      <c r="HS1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="4" t="s">
+      <c r="HT1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="4" t="s">
+      <c r="HU1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="4" t="s">
+      <c r="HV1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="4" t="s">
+      <c r="HW1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="4" t="s">
+      <c r="HX1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="4" t="s">
+      <c r="HY1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="4" t="s">
+      <c r="HZ1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="4" t="s">
+      <c r="IA1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="4" t="s">
+      <c r="IB1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="4" t="s">
+      <c r="IC1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="4" t="s">
+      <c r="ID1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="4" t="s">
+      <c r="IE1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="4" t="s">
+      <c r="IF1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="4" t="s">
+      <c r="IG1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="4" t="s">
+      <c r="IH1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="4" t="s">
+      <c r="II1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="4" t="s">
+      <c r="IJ1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="4" t="s">
+      <c r="IK1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="4" t="s">
+      <c r="IL1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="4" t="s">
+      <c r="IM1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="4" t="s">
+      <c r="IN1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="4" t="s">
+      <c r="IO1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="4" t="s">
+      <c r="IP1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="4" t="s">
+      <c r="IQ1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="4" t="s">
+      <c r="IR1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="4" t="s">
+      <c r="IS1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="4" t="s">
+      <c r="IT1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="4" t="s">
+      <c r="IU1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="4" t="s">
+      <c r="IV1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" s="4" t="s">
+      <c r="IW1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="IW1" s="4" t="s">
+      <c r="IX1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="IX1" s="4" t="s">
+      <c r="IY1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="IY1" s="4" t="s">
+      <c r="IZ1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="IZ1" s="4" t="s">
+      <c r="JA1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="JA1" s="4" t="s">
+      <c r="JB1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="JB1" s="4" t="s">
+      <c r="JC1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="JC1" s="4" t="s">
+      <c r="JD1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="JD1" s="4" t="s">
+      <c r="JE1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="JE1" s="4" t="s">
+      <c r="JF1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="JF1" s="4" t="s">
+      <c r="JG1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="JG1" s="4" t="s">
+      <c r="JH1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" s="4" t="s">
+      <c r="JI1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="JI1" s="4" t="s">
+      <c r="JJ1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="JJ1" s="4" t="s">
+      <c r="JK1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="JK1" s="4" t="s">
+      <c r="JL1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="JL1" s="4" t="s">
+      <c r="JM1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="JM1" s="4" t="s">
+      <c r="JN1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="JN1" s="4" t="s">
+      <c r="JO1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" s="4" t="s">
+      <c r="JP1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="JP1" s="4" t="s">
+      <c r="JQ1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="JQ1" s="4" t="s">
+      <c r="JR1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="JR1" s="4" t="s">
+      <c r="JS1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="JS1" s="4" t="s">
+      <c r="JT1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="JT1" s="4" t="s">
+      <c r="JU1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="JU1" s="4" t="s">
+      <c r="JV1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="JV1" s="4" t="s">
+      <c r="JW1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="JW1" s="4" t="s">
+      <c r="JX1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="JX1" s="4" t="s">
+      <c r="JY1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="JY1" s="4" t="s">
-        <v>284</v>
-      </c>
     </row>
-    <row r="2" spans="1:285" s="8" customFormat="1">
+    <row r="2" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>8602166992</v>
       </c>
@@ -2509,13 +2518,13 @@
         <v>2012</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="F2" s="7">
         <v>1.3374977726218089</v>
@@ -3358,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:285" s="9" customFormat="1">
+    <row r="3" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8602166992</v>
       </c>
@@ -3366,13 +3375,13 @@
         <v>2013</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="F3" s="7">
         <v>1.2278211592002024</v>
@@ -4215,25 +4224,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:285" s="9" customFormat="1">
+    <row r="4" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
@@ -5072,111 +5081,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:285" s="9" customFormat="1">
+    <row r="5" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8602166992</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X5" s="1">
         <v>2462</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z5" s="9">
         <v>10</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ5" s="9">
         <v>0</v>
@@ -5929,24 +5938,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:285" s="13" customFormat="1">
+    <row r="6" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>8602166992</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -6006,7 +6015,7 @@
         <v>269</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA6" s="13">
         <v>0</v>
@@ -6786,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:285" s="8" customFormat="1">
+    <row r="7" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5410786860</v>
       </c>
@@ -6794,13 +6803,13 @@
         <v>2013</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="F7" s="7">
         <v>1.2278211592002024</v>
@@ -7643,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:285" s="9" customFormat="1">
+    <row r="8" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5410786860</v>
       </c>
@@ -7651,16 +7660,16 @@
         <v>2014</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -8500,24 +8509,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:285" s="9" customFormat="1">
+    <row r="9" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -9357,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:285" s="13" customFormat="1">
+    <row r="10" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5410786860</v>
       </c>
@@ -9365,16 +9374,16 @@
         <v>2016</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G10" s="13">
         <v>0</v>
@@ -10214,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:285" s="8" customFormat="1">
+    <row r="11" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5503217263</v>
       </c>
@@ -10222,13 +10231,13 @@
         <v>2013</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="F11" s="7">
         <v>1.2278211592002024</v>
@@ -11071,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:285" s="9" customFormat="1">
+    <row r="12" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5503217263</v>
       </c>
@@ -11079,16 +11088,16 @@
         <v>2014</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -11928,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:285" s="9" customFormat="1">
+    <row r="13" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5503217263</v>
       </c>
@@ -11936,16 +11945,16 @@
         <v>2015</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -12785,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:285" s="13" customFormat="1">
+    <row r="14" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>5503217263</v>
       </c>
@@ -12793,16 +12802,16 @@
         <v>2016</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G14" s="13">
         <v>1466</v>
@@ -13642,21 +13651,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:285" s="8" customFormat="1">
+    <row r="15" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5402552025</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="F15" s="7">
         <v>0.88346701945525341</v>
@@ -14499,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:285" s="9" customFormat="1">
+    <row r="16" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5402552025</v>
       </c>
@@ -14507,13 +14516,13 @@
         <v>2012</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="F16" s="7">
         <v>1.3374977726218089</v>
@@ -15356,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:285" s="9" customFormat="1">
+    <row r="17" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5402552025</v>
       </c>
@@ -15364,13 +15373,13 @@
         <v>2013</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="F17" s="7">
         <v>1.2278211592002024</v>
@@ -16213,25 +16222,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:285" s="9" customFormat="1">
+    <row r="18" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
@@ -17070,25 +17079,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:285" s="9" customFormat="1">
+    <row r="19" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5402552025</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
@@ -17927,24 +17936,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:285" s="13" customFormat="1">
+    <row r="20" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>5402552025</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G20" s="13">
         <v>1855</v>
@@ -18784,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:285" s="8" customFormat="1">
+    <row r="21" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>3241012505</v>
       </c>
@@ -18792,17 +18801,17 @@
         <v>2014</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
@@ -19641,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:285" s="9" customFormat="1">
+    <row r="22" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3241012505</v>
       </c>
@@ -19649,16 +19658,16 @@
         <v>2015</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -20498,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:285" s="13" customFormat="1">
+    <row r="23" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>3241012505</v>
       </c>
@@ -20506,16 +20515,16 @@
         <v>2016</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G23" s="13">
         <v>1004</v>
@@ -21355,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:285" s="8" customFormat="1">
+    <row r="24" spans="1:285" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>7451346741</v>
       </c>
@@ -21363,13 +21372,13 @@
         <v>2014</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F24" s="14">
         <v>1.241829785</v>
@@ -22212,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:285" s="9" customFormat="1">
+    <row r="25" spans="1:285" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7451346741</v>
       </c>
@@ -22220,13 +22229,13 @@
         <v>2015</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="F25" s="14">
         <v>1.2688113402061854</v>
@@ -23069,7 +23078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:285" s="13" customFormat="1">
+    <row r="26" spans="1:285" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>7451346741</v>
       </c>
@@ -23077,16 +23086,16 @@
         <v>2016</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -23926,24 +23935,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:285" s="23" customFormat="1">
+    <row r="27" spans="1:285" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>5836603667</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>324</v>
-      </c>
       <c r="F27" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G27" s="23">
         <v>0</v>
@@ -24783,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:285" s="26" customFormat="1">
+    <row r="28" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>5836603667</v>
       </c>
@@ -24791,13 +24800,13 @@
         <v>2011</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>325</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>326</v>
       </c>
       <c r="F28" s="25">
         <v>0.88346701945525341</v>
@@ -25640,7 +25649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:285" s="26" customFormat="1">
+    <row r="29" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>5836603667</v>
       </c>
@@ -25648,13 +25657,13 @@
         <v>2012</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="F29" s="25">
         <v>1.3374977726218089</v>
@@ -26497,21 +26506,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:285" s="26" customFormat="1">
+    <row r="30" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>5836603667</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="E30" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>331</v>
       </c>
       <c r="F30" s="25">
         <v>1.2278211592002024</v>
@@ -27354,7 +27363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:285" s="26" customFormat="1">
+    <row r="31" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>5836603667</v>
       </c>
@@ -27362,16 +27371,16 @@
         <v>2014</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D31" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="F31" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G31" s="26">
         <v>2670</v>
@@ -28211,7 +28220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:285" s="26" customFormat="1">
+    <row r="32" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>5836603667</v>
       </c>
@@ -28219,16 +28228,16 @@
         <v>2015</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>335</v>
-      </c>
       <c r="F32" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G32" s="26">
         <v>0</v>
@@ -29068,881 +29077,881 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:285" s="31" customFormat="1">
+    <row r="33" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>5836603667</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>303</v>
-      </c>
       <c r="D33" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" s="31">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0</v>
+      </c>
+      <c r="L33" s="31">
+        <v>0</v>
+      </c>
+      <c r="M33" s="31">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="31">
+        <v>0</v>
+      </c>
+      <c r="P33" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>0</v>
+      </c>
+      <c r="R33" s="31">
+        <v>0</v>
+      </c>
+      <c r="S33" s="31">
+        <v>0</v>
+      </c>
+      <c r="T33" s="31">
+        <v>0</v>
+      </c>
+      <c r="U33" s="31">
+        <v>0</v>
+      </c>
+      <c r="V33" s="31">
+        <v>0</v>
+      </c>
+      <c r="W33" s="31">
+        <v>0</v>
+      </c>
+      <c r="X33" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="CZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="DZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="ED33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="ER33" s="31">
+        <v>0</v>
+      </c>
+      <c r="ES33" s="31">
+        <v>0</v>
+      </c>
+      <c r="ET33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="EZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="FZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="GZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="HZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="ID33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="II33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IY33" s="31">
+        <v>0</v>
+      </c>
+      <c r="IZ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JA33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JB33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JC33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JD33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JE33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JF33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JG33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JH33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JI33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JJ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JK33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JL33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JM33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JN33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JO33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JP33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JQ33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JR33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JS33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JT33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JU33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JV33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JW33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JX33" s="31">
+        <v>0</v>
+      </c>
+      <c r="JY33" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G33" s="31">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="31">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31">
-        <v>0</v>
-      </c>
-      <c r="L33" s="31">
-        <v>0</v>
-      </c>
-      <c r="M33" s="31">
-        <v>0</v>
-      </c>
-      <c r="N33" s="31">
-        <v>0</v>
-      </c>
-      <c r="O33" s="31">
-        <v>0</v>
-      </c>
-      <c r="P33" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="31">
-        <v>0</v>
-      </c>
-      <c r="R33" s="31">
-        <v>0</v>
-      </c>
-      <c r="S33" s="31">
-        <v>0</v>
-      </c>
-      <c r="T33" s="31">
-        <v>0</v>
-      </c>
-      <c r="U33" s="31">
-        <v>0</v>
-      </c>
-      <c r="V33" s="31">
-        <v>0</v>
-      </c>
-      <c r="W33" s="31">
-        <v>0</v>
-      </c>
-      <c r="X33" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="BZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="CZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="DZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="ED33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="ER33" s="31">
-        <v>0</v>
-      </c>
-      <c r="ES33" s="31">
-        <v>0</v>
-      </c>
-      <c r="ET33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="EZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="FZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="GZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="HZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="ID33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="II33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IY33" s="31">
-        <v>0</v>
-      </c>
-      <c r="IZ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JA33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JB33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JC33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JD33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JE33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JF33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JG33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JH33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JI33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JJ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JK33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JL33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JM33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JN33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JO33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JP33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JQ33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JR33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JS33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JT33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JU33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JV33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JW33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JX33" s="31">
-        <v>0</v>
-      </c>
-      <c r="JY33" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:285" s="26" customFormat="1">
-      <c r="A34" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="B34" s="24">
         <v>2010</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="F34" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G34" s="26">
         <v>1177</v>
@@ -30782,21 +30791,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:285" s="26" customFormat="1">
+    <row r="35" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="E35" s="20" t="s">
         <v>309</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>310</v>
       </c>
       <c r="F35" s="25">
         <v>0.88346701945525341</v>
@@ -31639,21 +31648,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:285" s="26" customFormat="1">
+    <row r="36" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>7705892352</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>286</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>287</v>
       </c>
       <c r="F36" s="25">
         <v>1.3374977726218089</v>
@@ -32496,21 +32505,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:285" s="26" customFormat="1">
+    <row r="37" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>7705892352</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>290</v>
       </c>
       <c r="F37" s="25">
         <v>1.2278211592002024</v>
@@ -33353,21 +33362,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:285" s="26" customFormat="1">
+    <row r="38" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="E38" s="20" t="s">
         <v>293</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>294</v>
       </c>
       <c r="F38" s="32">
         <v>1.241829785</v>
@@ -34210,21 +34219,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:285" s="26" customFormat="1">
+    <row r="39" spans="1:285" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>7705892352</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="F39" s="32">
         <v>1.2688113402061854</v>
@@ -35067,24 +35076,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:285" s="31" customFormat="1">
+    <row r="40" spans="1:285" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>7705892352</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="30" t="s">
+      <c r="F40" s="30" t="s">
         <v>304</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>305</v>
       </c>
       <c r="G40" s="31">
         <v>0</v>
@@ -35931,133 +35940,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="127" customWidth="1"/>
+    <col min="9" max="9" width="140.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1">
+    <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>320</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1">
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>358</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1">
-      <c r="A3" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1">
-      <c r="A4" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -36067,39 +36077,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:M6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
         <v>360</v>
       </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>361</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" t="s">
         <v>362</v>
       </c>
-      <c r="E1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -36108,12 +36120,12 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2">
@@ -36126,27 +36138,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" t="s">
         <v>344</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>345</v>
-      </c>
-      <c r="K2" t="s">
-        <v>346</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -36158,29 +36170,29 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -36192,27 +36204,27 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" t="s">
         <v>354</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>355</v>
-      </c>
-      <c r="K4" t="s">
-        <v>356</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -36224,31 +36236,31 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -36257,13 +36269,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6" t="s">
         <v>354</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>355</v>
-      </c>
-      <c r="K6" t="s">
-        <v>356</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>

--- a/docs/new_rules_cha_test.xlsx
+++ b/docs/new_rules_cha_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039B13D-98FA-478E-B308-93FF75982D56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1139,21 +1138,12 @@
     <t>descr</t>
   </si>
   <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>d3</t>
   </si>
   <si>
     <t>d4</t>
   </si>
   <si>
-    <t>d5</t>
-  </si>
-  <si>
     <t>5ce9089b-b9ac-417d-941d-717205978eec</t>
   </si>
   <si>
@@ -1173,12 +1163,21 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>Надежность</t>
+  </si>
+  <si>
+    <t>Финансовый риск</t>
+  </si>
+  <si>
+    <t>Репутационный риск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1629,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1655,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -35940,7 +35939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -35985,7 +35984,7 @@
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>340</v>
@@ -36014,7 +36013,7 @@
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>346</v>
@@ -36043,7 +36042,7 @@
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
         <v>351</v>
@@ -36077,11 +36076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36110,7 +36109,7 @@
         <v>362</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -36122,10 +36121,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2">
@@ -36152,13 +36151,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>374</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>377</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -36186,13 +36185,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>375</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>378</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -36218,13 +36217,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -36251,13 +36250,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
         <v>364</v>
